--- a/simple-xlsx/tests/test-chart/chart.xlsx
+++ b/simple-xlsx/tests/test-chart/chart.xlsx
@@ -4,35 +4,46 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="10590"/>
   </bookViews>
   <sheets>
-    <sheet name="数据页面" sheetId="1" r:id="rId1"/>
-    <sheet name="Chart1" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Chart4" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="DataSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="LineChart1" sheetId="2" r:id="rId2"/>
+    <sheet name="LineChart2" sheetId="3" r:id="rId3"/>
+    <sheet name="BarChart" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>月份</t>
+    <t>201601</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金额1</t>
+    <t>201602</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金额2</t>
+    <t>201603</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金额3</t>
+    <t>Brooks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>month/brand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -57,18 +68,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -85,11 +90,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -116,15 +118,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>图表</a:t>
+              <a:t>Horizontal Data</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>1</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -134,17 +134,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>金额1</c:v>
+            <c:v>CAT</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>数据页面!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+            <c:strRef>
+              <c:f>DataSheet!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>201601</c:v>
                 </c:pt>
@@ -154,83 +153,23 @@
                 <c:pt idx="2">
                   <c:v>201603</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>201604</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>201605</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>201606</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>201607</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>201608</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>201609</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>201610</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>201611</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>201612</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>201701</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据页面!$B$2:$B$14</c:f>
+              <c:f>DataSheet!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -240,17 +179,16 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>金额2</c:v>
+            <c:v>Puma</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>数据页面!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+            <c:strRef>
+              <c:f>DataSheet!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>201601</c:v>
                 </c:pt>
@@ -260,83 +198,23 @@
                 <c:pt idx="2">
                   <c:v>201603</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>201604</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>201605</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>201606</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>201607</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>201608</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>201609</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>201610</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>201611</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>201612</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>201701</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据页面!$C$2:$C$14</c:f>
+              <c:f>DataSheet!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>610</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>510</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -346,66 +224,53 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>金额3</c:v>
+            <c:v>Brooks</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DataSheet!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>201601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201603</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据页面!$D$2:$D$14</c:f>
+              <c:f>DataSheet!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1110</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1210</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1310</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1410</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1510</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1610</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1510</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1410</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1310</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1310</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1110</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1510</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72615808"/>
-        <c:axId val="72617344"/>
+        <c:axId val="74868224"/>
+        <c:axId val="74869760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72615808"/>
+        <c:axId val="74868224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,29 +278,49 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72617344"/>
+        <c:crossAx val="74869760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72617344"/>
+        <c:axId val="74869760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>Kg</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72615808"/>
+        <c:crossAx val="74868224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -457,12 +342,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>折线图</a:t>
+              <a:t>Vertical Data</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -472,62 +358,34 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>金额</c:v>
+            <c:v>201601</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>数据页面!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>201601</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>201602</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>201603</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>201604</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>201605</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>201606</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>201607</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>201608</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>201609</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>201610</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>201611</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>201612</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>201701</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>DataSheet!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CAT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Puma</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Brooks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据页面!$B$2:$B$14</c:f>
+              <c:f>DataSheet!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -537,60 +395,339 @@
                 <c:pt idx="2">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="3">
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>201602</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DataSheet!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CAT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Puma</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Brooks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DataSheet!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="2">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>201603</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DataSheet!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CAT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Puma</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Brooks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DataSheet!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79851904"/>
-        <c:axId val="79853440"/>
+        <c:axId val="74892032"/>
+        <c:axId val="74893568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79851904"/>
+        <c:axId val="74892032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79853440"/>
+        <c:crossAx val="74893568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79853440"/>
+        <c:axId val="74893568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>Kg</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74892032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DataSheet!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DataSheet!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>201601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201603</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DataSheet!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DataSheet!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Puma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DataSheet!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>201601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201603</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DataSheet!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DataSheet!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brooks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DataSheet!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>201601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201603</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DataSheet!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="96731136"/>
+        <c:axId val="96671232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="96731136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96671232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96671232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,13 +735,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79851904"/>
+        <c:crossAx val="96731136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -633,11 +771,22 @@
 </chartsheet>
 </file>
 
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="107" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9311355" cy="6079977"/>
+    <xdr:ext cx="9311355" cy="6088879"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
@@ -665,6 +814,33 @@
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="9311355" cy="6088879"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9311355" cy="6079977"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
@@ -972,208 +1148,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>201601</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="D2">
-        <v>1110</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>201602</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>200</v>
       </c>
-      <c r="C3" s="1">
-        <v>210</v>
+      <c r="C3">
+        <v>400</v>
       </c>
       <c r="D3">
-        <v>1210</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>201603</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>300</v>
       </c>
-      <c r="C4" s="1">
-        <v>310</v>
+      <c r="C4">
+        <v>500</v>
       </c>
       <c r="D4">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>201604</v>
-      </c>
-      <c r="B5" s="1">
         <v>400</v>
-      </c>
-      <c r="C5" s="1">
-        <v>410</v>
-      </c>
-      <c r="D5">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>201605</v>
-      </c>
-      <c r="B6" s="1">
-        <v>500</v>
-      </c>
-      <c r="C6" s="1">
-        <v>510</v>
-      </c>
-      <c r="D6">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>201606</v>
-      </c>
-      <c r="B7" s="1">
-        <v>600</v>
-      </c>
-      <c r="C7" s="1">
-        <v>610</v>
-      </c>
-      <c r="D7">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>201607</v>
-      </c>
-      <c r="B8" s="1">
-        <v>500</v>
-      </c>
-      <c r="C8" s="1">
-        <v>510</v>
-      </c>
-      <c r="D8">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>201608</v>
-      </c>
-      <c r="B9" s="1">
-        <v>400</v>
-      </c>
-      <c r="C9" s="1">
-        <v>410</v>
-      </c>
-      <c r="D9">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>201609</v>
-      </c>
-      <c r="B10" s="1">
-        <v>300</v>
-      </c>
-      <c r="C10" s="1">
-        <v>310</v>
-      </c>
-      <c r="D10">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>201610</v>
-      </c>
-      <c r="B11" s="1">
-        <v>300</v>
-      </c>
-      <c r="C11" s="1">
-        <v>310</v>
-      </c>
-      <c r="D11">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>201611</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-      <c r="C12">
-        <v>110</v>
-      </c>
-      <c r="D12">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>201612</v>
-      </c>
-      <c r="B13">
-        <v>100</v>
-      </c>
-      <c r="C13">
-        <v>110</v>
-      </c>
-      <c r="D13">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>201701</v>
-      </c>
-      <c r="B14">
-        <v>500</v>
-      </c>
-      <c r="C14">
-        <v>510</v>
-      </c>
-      <c r="D14">
-        <v>1510</v>
       </c>
     </row>
   </sheetData>
@@ -1181,34 +1215,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/simple-xlsx/tests/test-chart/chart.xlsx
+++ b/simple-xlsx/tests/test-chart/chart.xlsx
@@ -266,11 +266,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74868224"/>
-        <c:axId val="74869760"/>
+        <c:axId val="75261440"/>
+        <c:axId val="75262976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74868224"/>
+        <c:axId val="75261440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -278,14 +278,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74869760"/>
+        <c:crossAx val="75262976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74869760"/>
+        <c:axId val="75262976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -313,7 +313,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74868224"/>
+        <c:crossAx val="75261440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -490,11 +490,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74892032"/>
-        <c:axId val="74893568"/>
+        <c:axId val="77559296"/>
+        <c:axId val="77560832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74892032"/>
+        <c:axId val="77559296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -502,14 +502,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74893568"/>
+        <c:crossAx val="77560832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74893568"/>
+        <c:axId val="77560832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,7 +537,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74892032"/>
+        <c:crossAx val="77559296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -555,6 +555,25 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>BarChart</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -710,32 +729,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96731136"/>
-        <c:axId val="96671232"/>
+        <c:axId val="82072704"/>
+        <c:axId val="82074240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96731136"/>
+        <c:axId val="82072704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96671232"/>
+        <c:crossAx val="82074240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96671232"/>
+        <c:axId val="82074240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Kg</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96731136"/>
+        <c:crossAx val="82072704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/simple-xlsx/tests/test-chart/chart.xlsx
+++ b/simple-xlsx/tests/test-chart/chart.xlsx
@@ -11,6 +11,7 @@
     <sheet name="LineChart1" sheetId="2" r:id="rId2"/>
     <sheet name="LineChart2" sheetId="3" r:id="rId3"/>
     <sheet name="BarChart" sheetId="5" r:id="rId4"/>
+    <sheet name="PieChart" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -124,7 +125,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -266,11 +266,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75261440"/>
-        <c:axId val="75262976"/>
+        <c:axId val="78865920"/>
+        <c:axId val="78867456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75261440"/>
+        <c:axId val="78865920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -278,14 +278,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75262976"/>
+        <c:crossAx val="78867456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75262976"/>
+        <c:axId val="78867456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -308,19 +308,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75261440"/>
+        <c:crossAx val="78865920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -348,7 +346,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -490,11 +487,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77559296"/>
-        <c:axId val="77560832"/>
+        <c:axId val="83195392"/>
+        <c:axId val="83196928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77559296"/>
+        <c:axId val="83195392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -502,14 +499,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77560832"/>
+        <c:crossAx val="83196928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77560832"/>
+        <c:axId val="83196928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -532,19 +529,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77559296"/>
+        <c:crossAx val="83195392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -729,24 +724,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="82072704"/>
-        <c:axId val="82074240"/>
+        <c:axId val="85218432"/>
+        <c:axId val="85219968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82072704"/>
+        <c:axId val="85218432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82074240"/>
+        <c:crossAx val="85219968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82074240"/>
+        <c:axId val="85219968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +767,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82072704"/>
+        <c:crossAx val="85218432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -786,6 +781,184 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DataSheet!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DataSheet!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>201601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201603</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DataSheet!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DataSheet!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Puma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DataSheet!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>201601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201603</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DataSheet!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DataSheet!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brooks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showVal val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>DataSheet!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>201601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201603</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DataSheet!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
@@ -809,6 +982,17 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="107" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -874,6 +1058,33 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9311355" cy="6079977"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
